--- a/server/jobs/דוח_מכירות_2025-06-30_עד_2025-07-30.xlsx
+++ b/server/jobs/דוח_מכירות_2025-06-30_עד_2025-07-30.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="274">
   <si>
     <t>חודש</t>
   </si>
@@ -52,375 +52,372 @@
     <t>אודל רהיטים בע"מ HOME FIX</t>
   </si>
   <si>
-    <t>15850.00</t>
-  </si>
-  <si>
-    <t>13472.50</t>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>11475.00</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>5012.50</t>
-  </si>
-  <si>
-    <t>2377.50</t>
+    <t>4174.00</t>
+  </si>
+  <si>
+    <t>2025.00</t>
   </si>
   <si>
     <t>טאץ' רהיטים</t>
   </si>
   <si>
-    <t>16050.00</t>
+    <t>5350.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>1229.91</t>
+  </si>
+  <si>
+    <t>דורון שיווק</t>
+  </si>
+  <si>
+    <t>17460.00</t>
+  </si>
+  <si>
+    <t>15714.00</t>
+  </si>
+  <si>
+    <t>4652.00</t>
+  </si>
+  <si>
+    <t>1746.00</t>
+  </si>
+  <si>
+    <t>גלובל רהיטים</t>
+  </si>
+  <si>
+    <t>45780.00</t>
+  </si>
+  <si>
+    <t>41202.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>13213.04</t>
+  </si>
+  <si>
+    <t>4578.00</t>
+  </si>
+  <si>
+    <t>רהיטי מעיין</t>
+  </si>
+  <si>
+    <t>28450.00</t>
+  </si>
+  <si>
+    <t>22432.82</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>3166.75</t>
+  </si>
+  <si>
+    <t>6017.18</t>
+  </si>
+  <si>
+    <t>מעיין אור ניהול ואחזקות בע"מ 0546200666</t>
+  </si>
+  <si>
+    <t>5125.00</t>
+  </si>
+  <si>
+    <t>807.10</t>
+  </si>
+  <si>
+    <t>ד.עמית רהיטים בע"מ</t>
+  </si>
+  <si>
+    <t>14650.00</t>
+  </si>
+  <si>
+    <t>13185.00</t>
+  </si>
+  <si>
+    <t>3032.00</t>
+  </si>
+  <si>
+    <t>1465.00</t>
+  </si>
+  <si>
+    <t>דיזיין רהיטי מעצבים בע"מ</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>5950.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>מחסני ריהוט</t>
+  </si>
+  <si>
+    <t>8150.00</t>
+  </si>
+  <si>
+    <t>6112.50</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>2037.50</t>
+  </si>
+  <si>
+    <t>מספר עסקה</t>
+  </si>
+  <si>
+    <t>תאריך</t>
+  </si>
+  <si>
+    <t>לקוח</t>
+  </si>
+  <si>
+    <t>מוצר</t>
+  </si>
+  <si>
+    <t>כמות</t>
+  </si>
+  <si>
+    <t>מחיר ליחידה</t>
+  </si>
+  <si>
+    <t>סכום כולל לפריט</t>
+  </si>
+  <si>
+    <t>הנחה (חלק יחסי)</t>
+  </si>
+  <si>
+    <t>עלות משלוח (חלק יחסי)</t>
+  </si>
+  <si>
+    <t>סכום לאחר הנחה+משלוח לפריט</t>
+  </si>
+  <si>
+    <t>סכום כולל לעסקה</t>
+  </si>
+  <si>
+    <t>סכום לאחר הנחה לעסקה</t>
+  </si>
+  <si>
+    <t>מוכר</t>
+  </si>
+  <si>
+    <t>עלות מוצר</t>
+  </si>
+  <si>
+    <t>רווח פריט</t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>רווח כולל</t>
+  </si>
+  <si>
+    <t>30.6.2025</t>
+  </si>
+  <si>
+    <t>בדיקה</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>shaiel</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>325.00</t>
+  </si>
+  <si>
+    <t>3.7.2025</t>
+  </si>
+  <si>
+    <t>ספייס 80/190</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>1480.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>407.00</t>
+  </si>
+  <si>
+    <t>666.00</t>
+  </si>
+  <si>
+    <t>29.7.2025</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>3187.50</t>
+  </si>
+  <si>
+    <t>גכעהסבהז</t>
+  </si>
+  <si>
+    <t>הייבריד 140/190</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>1572.50</t>
+  </si>
+  <si>
+    <t>734.00</t>
+  </si>
+  <si>
+    <t>838.50</t>
+  </si>
+  <si>
+    <t>הייבריד 140/200</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>1615.00</t>
+  </si>
+  <si>
+    <t>759.00</t>
+  </si>
+  <si>
+    <t>856.00</t>
+  </si>
+  <si>
+    <t>30.7.2025</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>1997.50</t>
+  </si>
+  <si>
+    <t>נהמבהנמבהנ</t>
+  </si>
+  <si>
+    <t>ספייס 120/200</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>70.09</t>
+  </si>
+  <si>
+    <t>2429.91</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>ספייס 140/190</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>39.25</t>
+  </si>
+  <si>
+    <t>1360.75</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>740.75</t>
+  </si>
+  <si>
+    <t>ספייס 140/200</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>40.65</t>
+  </si>
+  <si>
+    <t>1409.35</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>769.35</t>
+  </si>
+  <si>
+    <t>7.7.2025</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
   </si>
   <si>
     <t>450.00</t>
   </si>
   <si>
-    <t>2740.01</t>
-  </si>
-  <si>
-    <t>דורון שיווק</t>
-  </si>
-  <si>
-    <t>27720.00</t>
-  </si>
-  <si>
-    <t>24948.00</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>7193.00</t>
-  </si>
-  <si>
-    <t>2772.00</t>
-  </si>
-  <si>
-    <t>גלובל רהיטים</t>
-  </si>
-  <si>
-    <t>47440.00</t>
-  </si>
-  <si>
-    <t>42696.00</t>
-  </si>
-  <si>
-    <t>600.00</t>
-  </si>
-  <si>
-    <t>15520.99</t>
-  </si>
-  <si>
-    <t>4744.00</t>
-  </si>
-  <si>
-    <t>רהיטי מעיין</t>
-  </si>
-  <si>
-    <t>67100.00</t>
-  </si>
-  <si>
-    <t>52908.34</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>11897.82</t>
-  </si>
-  <si>
-    <t>14191.66</t>
-  </si>
-  <si>
-    <t>מעיין אור ניהול ואחזקות בע"מ 0546200666</t>
-  </si>
-  <si>
-    <t>20500.00</t>
-  </si>
-  <si>
-    <t>3592.00</t>
-  </si>
-  <si>
-    <t>ד.עמית רהיטים בע"מ</t>
-  </si>
-  <si>
-    <t>36250.00</t>
-  </si>
-  <si>
-    <t>32625.00</t>
-  </si>
-  <si>
-    <t>7707.00</t>
-  </si>
-  <si>
-    <t>3625.00</t>
-  </si>
-  <si>
-    <t>דיזיין רהיטי מעצבים בע"מ</t>
-  </si>
-  <si>
-    <t>14000.00</t>
-  </si>
-  <si>
-    <t>11900.00</t>
-  </si>
-  <si>
-    <t>3154.00</t>
-  </si>
-  <si>
-    <t>2100.00</t>
-  </si>
-  <si>
-    <t>מחסני ריהוט</t>
-  </si>
-  <si>
-    <t>32600.00</t>
-  </si>
-  <si>
-    <t>24450.00</t>
-  </si>
-  <si>
-    <t>3011.50</t>
-  </si>
-  <si>
-    <t>8150.00</t>
-  </si>
-  <si>
-    <t>מספר עסקה</t>
-  </si>
-  <si>
-    <t>תאריך</t>
-  </si>
-  <si>
-    <t>לקוח</t>
-  </si>
-  <si>
-    <t>מוצר</t>
-  </si>
-  <si>
-    <t>כמות</t>
-  </si>
-  <si>
-    <t>מחיר ליחידה</t>
-  </si>
-  <si>
-    <t>סכום כולל לפריט</t>
-  </si>
-  <si>
-    <t>הנחה (חלק יחסי)</t>
-  </si>
-  <si>
-    <t>עלות משלוח (חלק יחסי)</t>
-  </si>
-  <si>
-    <t>סכום לאחר הנחה+משלוח לפריט</t>
-  </si>
-  <si>
-    <t>סכום כולל לעסקה</t>
-  </si>
-  <si>
-    <t>סכום לאחר הנחה לעסקה</t>
-  </si>
-  <si>
-    <t>מוכר</t>
-  </si>
-  <si>
-    <t>עלות מוצר</t>
-  </si>
-  <si>
-    <t>רווח פריט</t>
-  </si>
-  <si>
-    <t>הערות</t>
-  </si>
-  <si>
-    <t>רווח כולל</t>
-  </si>
-  <si>
-    <t>30.6.2025</t>
-  </si>
-  <si>
-    <t>בדיקה</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>425.00</t>
-  </si>
-  <si>
-    <t>shaiel</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>325.00</t>
-  </si>
-  <si>
-    <t>3.7.2025</t>
-  </si>
-  <si>
-    <t>ספייס 80/190</t>
-  </si>
-  <si>
-    <t>800.00</t>
-  </si>
-  <si>
-    <t>1600.00</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>1480.00</t>
-  </si>
-  <si>
-    <t>680.00</t>
-  </si>
-  <si>
-    <t>407.00</t>
-  </si>
-  <si>
-    <t>666.00</t>
-  </si>
-  <si>
-    <t>29.7.2025</t>
-  </si>
-  <si>
-    <t>3750.00</t>
-  </si>
-  <si>
-    <t>3187.50</t>
-  </si>
-  <si>
-    <t>גכעהסבהז</t>
-  </si>
-  <si>
-    <t>הייבריד 140/190</t>
-  </si>
-  <si>
-    <t>1850.00</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>1572.50</t>
-  </si>
-  <si>
-    <t>734.00</t>
-  </si>
-  <si>
-    <t>838.50</t>
-  </si>
-  <si>
-    <t>הייבריד 140/200</t>
-  </si>
-  <si>
-    <t>1900.00</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>1615.00</t>
-  </si>
-  <si>
-    <t>759.00</t>
-  </si>
-  <si>
-    <t>856.00</t>
-  </si>
-  <si>
-    <t>30.7.2025</t>
-  </si>
-  <si>
-    <t>2350.00</t>
-  </si>
-  <si>
-    <t>1997.50</t>
-  </si>
-  <si>
-    <t>נהמבהנמבהנ</t>
-  </si>
-  <si>
-    <t>ספייס 120/200</t>
-  </si>
-  <si>
-    <t>1250.00</t>
-  </si>
-  <si>
-    <t>2500.00</t>
-  </si>
-  <si>
-    <t>70.09</t>
-  </si>
-  <si>
-    <t>2429.91</t>
-  </si>
-  <si>
-    <t>5350.00</t>
-  </si>
-  <si>
-    <t>1229.91</t>
-  </si>
-  <si>
-    <t>ספייס 140/190</t>
-  </si>
-  <si>
-    <t>1400.00</t>
-  </si>
-  <si>
-    <t>39.25</t>
-  </si>
-  <si>
-    <t>1360.75</t>
-  </si>
-  <si>
-    <t>620.00</t>
-  </si>
-  <si>
-    <t>740.75</t>
-  </si>
-  <si>
-    <t>ספייס 140/200</t>
-  </si>
-  <si>
-    <t>1450.00</t>
-  </si>
-  <si>
-    <t>40.65</t>
-  </si>
-  <si>
-    <t>1409.35</t>
-  </si>
-  <si>
-    <t>640.00</t>
-  </si>
-  <si>
-    <t>769.35</t>
-  </si>
-  <si>
-    <t>7.7.2025</t>
-  </si>
-  <si>
-    <t>1000.00</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>950.00</t>
-  </si>
-  <si>
     <t>750.00</t>
   </si>
   <si>
@@ -625,6 +622,24 @@
     <t>951.00</t>
   </si>
   <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>10260.00</t>
+  </si>
+  <si>
+    <t>7400.00</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>6660.00</t>
+  </si>
+  <si>
+    <t>3724.00</t>
+  </si>
+  <si>
     <t>105.75</t>
   </si>
   <si>
@@ -733,12 +748,6 @@
     <t>1456.10</t>
   </si>
   <si>
-    <t>5125.00</t>
-  </si>
-  <si>
-    <t>807.10</t>
-  </si>
-  <si>
     <t>54.15</t>
   </si>
   <si>
@@ -769,9 +778,6 @@
     <t>1350.00</t>
   </si>
   <si>
-    <t>1050.00</t>
-  </si>
-  <si>
     <t>נעכגבעיבגיעה</t>
   </si>
   <si>
@@ -790,33 +796,12 @@
     <t>701.00</t>
   </si>
   <si>
-    <t>7400.00</t>
-  </si>
-  <si>
-    <t>740.00</t>
-  </si>
-  <si>
-    <t>6660.00</t>
-  </si>
-  <si>
-    <t>3724.00</t>
-  </si>
-  <si>
     <t>850.00</t>
   </si>
   <si>
-    <t>7000.00</t>
-  </si>
-  <si>
-    <t>5950.00</t>
-  </si>
-  <si>
     <t>גדכשדכד</t>
   </si>
   <si>
-    <t>650.00</t>
-  </si>
-  <si>
     <t>6000.00</t>
   </si>
   <si>
@@ -829,13 +814,7 @@
     <t>250.00</t>
   </si>
   <si>
-    <t>6112.50</t>
-  </si>
-  <si>
     <t>כסעזסבהעסכבגש</t>
-  </si>
-  <si>
-    <t>550.00</t>
   </si>
   <si>
     <t>375.00</t>
@@ -1352,13 +1331,13 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,25 +1345,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1392,25 +1371,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,22 +1397,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1444,25 +1423,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1470,25 +1449,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
         <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,25 +1475,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
         <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1549,55 +1528,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1605,49 +1584,49 @@
         <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>269</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
       <c r="P2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q2" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1655,49 +1634,49 @@
         <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
         <v>159</v>
       </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" t="s">
-        <v>160</v>
-      </c>
       <c r="P3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1705,49 +1684,49 @@
         <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4" t="s">
         <v>270</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1755,49 +1734,49 @@
         <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1832,55 +1811,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1888,49 +1867,49 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
       <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="J2" t="s">
-        <v>77</v>
-      </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" t="s">
         <v>79</v>
-      </c>
-      <c r="P2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1938,49 +1917,49 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>84</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
         <v>85</v>
       </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
         <v>88</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1988,7 +1967,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2000,31 +1979,31 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s">
         <v>91</v>
       </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2032,49 +2011,49 @@
         <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
         <v>95</v>
       </c>
-      <c r="G5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
         <v>96</v>
       </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
         <v>97</v>
       </c>
-      <c r="K5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" t="s">
         <v>98</v>
-      </c>
-      <c r="P5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2082,49 +2061,49 @@
         <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
         <v>101</v>
       </c>
-      <c r="G6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>102</v>
       </c>
-      <c r="I6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
         <v>103</v>
       </c>
-      <c r="K6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" t="s">
         <v>104</v>
-      </c>
-      <c r="P6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2132,49 +2111,49 @@
         <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
         <v>74</v>
       </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
       <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
         <v>76</v>
       </c>
-      <c r="J7" t="s">
-        <v>77</v>
-      </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
         <v>78</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
         <v>79</v>
-      </c>
-      <c r="P7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2182,49 +2161,49 @@
         <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
         <v>96</v>
       </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
         <v>98</v>
-      </c>
-      <c r="P8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2232,49 +2211,49 @@
         <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
       <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
         <v>76</v>
       </c>
-      <c r="J9" t="s">
-        <v>77</v>
-      </c>
       <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
         <v>107</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
         <v>108</v>
       </c>
-      <c r="M9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>79</v>
-      </c>
-      <c r="P9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2282,49 +2261,49 @@
         <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
         <v>96</v>
       </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
         <v>97</v>
       </c>
-      <c r="K10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" t="s">
         <v>98</v>
-      </c>
-      <c r="P10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2359,55 +2338,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2415,49 +2394,49 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
         <v>111</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
         <v>112</v>
       </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>113</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>114</v>
       </c>
-      <c r="K2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2465,49 +2444,49 @@
         <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" t="s">
         <v>118</v>
       </c>
-      <c r="G3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
         <v>119</v>
       </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
         <v>120</v>
-      </c>
-      <c r="K3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2515,49 +2494,49 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" t="s">
         <v>124</v>
       </c>
-      <c r="G4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
         <v>125</v>
       </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2592,55 +2571,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2648,49 +2627,49 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
         <v>130</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
         <v>131</v>
       </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" t="s">
         <v>132</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2698,49 +2677,49 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
         <v>134</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>135</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
         <v>136</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2748,49 +2727,49 @@
         <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" t="s">
         <v>139</v>
       </c>
-      <c r="G4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
         <v>140</v>
       </c>
-      <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>141</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>142</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
         <v>143</v>
       </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
         <v>144</v>
-      </c>
-      <c r="P4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2798,49 +2777,49 @@
         <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
         <v>147</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>148</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
         <v>149</v>
       </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
         <v>150</v>
       </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
         <v>151</v>
-      </c>
-      <c r="P5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2848,49 +2827,49 @@
         <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" t="s">
         <v>154</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>155</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" t="s">
         <v>156</v>
-      </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2898,49 +2877,49 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
         <v>159</v>
       </c>
-      <c r="G7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
         <v>160</v>
-      </c>
-      <c r="P7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2948,49 +2927,49 @@
         <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
         <v>162</v>
       </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>163</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>164</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
         <v>165</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2998,49 +2977,49 @@
         <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" t="s">
         <v>168</v>
       </c>
-      <c r="G9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
         <v>169</v>
       </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
         <v>170</v>
-      </c>
-      <c r="K9" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3048,49 +3027,49 @@
         <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
         <v>172</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
         <v>173</v>
       </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="s">
         <v>174</v>
       </c>
-      <c r="K10" t="s">
-        <v>172</v>
-      </c>
-      <c r="L10" t="s">
-        <v>174</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>175</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3080,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -3125,55 +3104,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3181,49 +3160,49 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
         <v>131</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3231,49 +3210,49 @@
         <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
         <v>159</v>
       </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
         <v>180</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" t="s">
-        <v>160</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3281,49 +3260,49 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" t="s">
         <v>182</v>
       </c>
-      <c r="J4" t="s">
-        <v>183</v>
-      </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3331,49 +3310,49 @@
         <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" t="s">
         <v>184</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>185</v>
       </c>
-      <c r="J5" t="s">
-        <v>186</v>
-      </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3381,49 +3360,49 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" t="s">
         <v>188</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
         <v>189</v>
       </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" t="s">
         <v>190</v>
       </c>
-      <c r="K6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" t="s">
         <v>191</v>
-      </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3431,10 +3410,10 @@
         <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -3443,31 +3422,31 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3475,49 +3454,49 @@
         <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
         <v>195</v>
       </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>195</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q8" t="s">
         <v>196</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>196</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3525,49 +3504,49 @@
         <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
         <v>198</v>
       </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" t="s">
         <v>199</v>
-      </c>
-      <c r="K9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" t="s">
-        <v>199</v>
-      </c>
-      <c r="M9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3575,49 +3554,49 @@
         <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
         <v>195</v>
       </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
         <v>196</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" t="s">
-        <v>196</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3625,49 +3604,49 @@
         <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
         <v>198</v>
       </c>
-      <c r="I11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>198</v>
+      </c>
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
         <v>199</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" t="s">
-        <v>199</v>
-      </c>
-      <c r="M11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3675,49 +3654,49 @@
         <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
         <v>195</v>
       </c>
-      <c r="I12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>195</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
         <v>196</v>
-      </c>
-      <c r="K12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" t="s">
-        <v>196</v>
-      </c>
-      <c r="M12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3725,49 +3704,49 @@
         <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
         <v>198</v>
       </c>
-      <c r="I13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
         <v>199</v>
-      </c>
-      <c r="K13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" t="s">
-        <v>199</v>
-      </c>
-      <c r="M13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" t="s">
-        <v>104</v>
-      </c>
-      <c r="P13" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3775,49 +3754,49 @@
         <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
         <v>195</v>
       </c>
-      <c r="I14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
         <v>196</v>
-      </c>
-      <c r="K14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" t="s">
-        <v>193</v>
-      </c>
-      <c r="M14" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3825,49 +3804,49 @@
         <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
         <v>198</v>
       </c>
-      <c r="I15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
         <v>199</v>
-      </c>
-      <c r="K15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3875,49 +3854,49 @@
         <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
         <v>195</v>
       </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
         <v>196</v>
-      </c>
-      <c r="K16" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" t="s">
-        <v>193</v>
-      </c>
-      <c r="M16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N16" t="s">
-        <v>98</v>
-      </c>
-      <c r="P16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3925,49 +3904,199 @@
         <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
+        <v>197</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
         <v>198</v>
       </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
         <v>199</v>
       </c>
-      <c r="K17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" t="s">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" t="s">
         <v>78</v>
       </c>
-      <c r="N17" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
         <v>200</v>
+      </c>
+      <c r="L18" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4002,55 +4131,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4058,49 +4187,49 @@
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4108,49 +4237,49 @@
         <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
-        <v>79</v>
-      </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4158,49 +4287,49 @@
         <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
         <v>159</v>
       </c>
-      <c r="G4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" t="s">
-        <v>160</v>
-      </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4208,49 +4337,49 @@
         <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4258,49 +4387,49 @@
         <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4308,49 +4437,49 @@
         <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
         <v>159</v>
       </c>
-      <c r="G7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" t="s">
-        <v>160</v>
-      </c>
       <c r="P7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4358,49 +4487,49 @@
         <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
         <v>78</v>
       </c>
-      <c r="N8" t="s">
-        <v>79</v>
-      </c>
       <c r="P8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4408,49 +4537,49 @@
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
         <v>159</v>
       </c>
-      <c r="G9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" t="s">
-        <v>215</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K9" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" t="s">
-        <v>160</v>
-      </c>
       <c r="P9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4458,49 +4587,49 @@
         <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
         <v>78</v>
       </c>
-      <c r="N10" t="s">
-        <v>79</v>
-      </c>
       <c r="P10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4508,49 +4637,49 @@
         <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
         <v>159</v>
       </c>
-      <c r="G11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" t="s">
-        <v>215</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" t="s">
-        <v>216</v>
-      </c>
-      <c r="K11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" t="s">
-        <v>160</v>
-      </c>
       <c r="P11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4558,49 +4687,49 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L12" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
         <v>78</v>
       </c>
-      <c r="N12" t="s">
-        <v>79</v>
-      </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4608,49 +4737,49 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" t="s">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -4658,49 +4787,49 @@
         <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
         <v>159</v>
       </c>
-      <c r="G14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" t="s">
-        <v>205</v>
-      </c>
-      <c r="I14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s">
-        <v>206</v>
-      </c>
-      <c r="K14" t="s">
-        <v>222</v>
-      </c>
-      <c r="L14" t="s">
-        <v>223</v>
-      </c>
-      <c r="M14" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" t="s">
-        <v>160</v>
-      </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -4708,49 +4837,49 @@
         <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4758,49 +4887,49 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" t="s">
         <v>78</v>
       </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
       <c r="P16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q16" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4808,49 +4937,49 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" t="s">
         <v>159</v>
       </c>
-      <c r="G17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" t="s">
-        <v>205</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" t="s">
-        <v>206</v>
-      </c>
-      <c r="K17" t="s">
-        <v>227</v>
-      </c>
-      <c r="L17" t="s">
-        <v>228</v>
-      </c>
-      <c r="M17" t="s">
-        <v>78</v>
-      </c>
-      <c r="N17" t="s">
-        <v>160</v>
-      </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q17" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -4858,49 +4987,49 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q18" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -4908,49 +5037,49 @@
         <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4985,55 +5114,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5041,49 +5170,49 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>159</v>
       </c>
-      <c r="G2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K2" t="s">
-        <v>237</v>
-      </c>
-      <c r="L2" t="s">
-        <v>237</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" t="s">
-        <v>160</v>
-      </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>238</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5091,49 +5220,49 @@
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5141,49 +5270,49 @@
         <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5191,49 +5320,49 @@
         <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5268,55 +5397,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5324,49 +5453,49 @@
         <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5374,49 +5503,49 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
         <v>131</v>
       </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
-        <v>79</v>
-      </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5424,49 +5553,49 @@
         <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
         <v>195</v>
       </c>
-      <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q4" t="s">
         <v>196</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" t="s">
-        <v>196</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5474,49 +5603,49 @@
         <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L5" t="s">
+        <v>255</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
         <v>159</v>
       </c>
-      <c r="G5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>248</v>
-      </c>
-      <c r="K5" t="s">
-        <v>252</v>
-      </c>
-      <c r="L5" t="s">
-        <v>253</v>
-      </c>
-      <c r="M5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" t="s">
-        <v>160</v>
-      </c>
       <c r="P5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5524,49 +5653,49 @@
         <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" t="s">
         <v>256</v>
       </c>
-      <c r="H6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s">
-        <v>258</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" t="s">
-        <v>254</v>
-      </c>
       <c r="Q6" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5574,49 +5703,49 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
         <v>198</v>
       </c>
-      <c r="I7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" t="s">
         <v>199</v>
-      </c>
-      <c r="K7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5651,55 +5780,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5707,49 +5836,49 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K2" t="s">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
       <c r="P2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q2" t="s">
-        <v>264</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5757,49 +5886,49 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
         <v>159</v>
       </c>
-      <c r="G3" t="s">
-        <v>265</v>
-      </c>
-      <c r="H3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" t="s">
-        <v>160</v>
-      </c>
       <c r="P3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/server/jobs/דוח_מכירות_2025-06-30_עד_2025-07-30.xlsx
+++ b/server/jobs/דוח_מכירות_2025-06-30_עד_2025-07-30.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="250">
   <si>
     <t>חודש</t>
   </si>
@@ -82,34 +82,34 @@
     <t>דורון שיווק</t>
   </si>
   <si>
-    <t>17460.00</t>
-  </si>
-  <si>
-    <t>15714.00</t>
-  </si>
-  <si>
-    <t>4652.00</t>
-  </si>
-  <si>
-    <t>1746.00</t>
+    <t>11210.00</t>
+  </si>
+  <si>
+    <t>10089.00</t>
+  </si>
+  <si>
+    <t>2477.00</t>
+  </si>
+  <si>
+    <t>1121.00</t>
   </si>
   <si>
     <t>גלובל רהיטים</t>
   </si>
   <si>
-    <t>45780.00</t>
-  </si>
-  <si>
-    <t>41202.00</t>
+    <t>34380.00</t>
+  </si>
+  <si>
+    <t>30942.00</t>
   </si>
   <si>
     <t>400.00</t>
   </si>
   <si>
-    <t>13213.04</t>
-  </si>
-  <si>
-    <t>4578.00</t>
+    <t>12513.04</t>
+  </si>
+  <si>
+    <t>3438.00</t>
   </si>
   <si>
     <t>רהיטי מעיין</t>
@@ -142,16 +142,16 @@
     <t>ד.עמית רהיטים בע"מ</t>
   </si>
   <si>
-    <t>14650.00</t>
-  </si>
-  <si>
-    <t>13185.00</t>
-  </si>
-  <si>
-    <t>3032.00</t>
-  </si>
-  <si>
-    <t>1465.00</t>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>3465.00</t>
+  </si>
+  <si>
+    <t>2331.00</t>
+  </si>
+  <si>
+    <t>385.00</t>
   </si>
   <si>
     <t>דיזיין רהיטי מעצבים בע"מ</t>
@@ -505,210 +505,150 @@
     <t>1402.00</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>720.00</t>
-  </si>
-  <si>
-    <t>2550.00</t>
-  </si>
-  <si>
-    <t>2295.00</t>
-  </si>
-  <si>
-    <t>313.00</t>
-  </si>
-  <si>
-    <t>ספייס 180/200</t>
-  </si>
-  <si>
-    <t>1750.00</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>1575.00</t>
-  </si>
-  <si>
-    <t>775.00</t>
+    <t>53.96</t>
+  </si>
+  <si>
+    <t>1296.04</t>
+  </si>
+  <si>
+    <t>2780.00</t>
+  </si>
+  <si>
+    <t>2502.00</t>
+  </si>
+  <si>
+    <t>647.04</t>
+  </si>
+  <si>
+    <t>17.99</t>
+  </si>
+  <si>
+    <t>432.01</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>28.06</t>
+  </si>
+  <si>
+    <t>673.94</t>
+  </si>
+  <si>
+    <t>8.7.2025</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>7590.00</t>
+  </si>
+  <si>
+    <t>7740.00</t>
+  </si>
+  <si>
+    <t>4158.00</t>
+  </si>
+  <si>
+    <t>3375.00</t>
+  </si>
+  <si>
+    <t>כעשכעכגד</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>1665.00</t>
+  </si>
+  <si>
+    <t>931.00</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>1710.00</t>
+  </si>
+  <si>
+    <t>951.00</t>
+  </si>
+  <si>
+    <t>105.75</t>
+  </si>
+  <si>
+    <t>294.25</t>
+  </si>
+  <si>
+    <t>394.25</t>
+  </si>
+  <si>
+    <t>194.25</t>
+  </si>
+  <si>
+    <t>317.25</t>
+  </si>
+  <si>
+    <t>1182.75</t>
+  </si>
+  <si>
+    <t>3350.00</t>
+  </si>
+  <si>
+    <t>2641.47</t>
+  </si>
+  <si>
+    <t>533.75</t>
+  </si>
+  <si>
+    <t>391.28</t>
+  </si>
+  <si>
+    <t>1458.72</t>
+  </si>
+  <si>
+    <t>724.72</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2759.75</t>
+  </si>
+  <si>
+    <t>634.50</t>
+  </si>
+  <si>
+    <t>2365.50</t>
+  </si>
+  <si>
+    <t>1067.50</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>1892.40</t>
+  </si>
+  <si>
+    <t>401.85</t>
+  </si>
+  <si>
+    <t>1498.15</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>4494.45</t>
   </si>
   <si>
     <t>3700.00</t>
   </si>
   <si>
-    <t>370.00</t>
-  </si>
-  <si>
-    <t>3330.00</t>
-  </si>
-  <si>
-    <t>דשגכשדכ</t>
-  </si>
-  <si>
-    <t>1862.00</t>
-  </si>
-  <si>
-    <t>53.96</t>
-  </si>
-  <si>
-    <t>1296.04</t>
-  </si>
-  <si>
-    <t>2780.00</t>
-  </si>
-  <si>
-    <t>2502.00</t>
-  </si>
-  <si>
-    <t>647.04</t>
-  </si>
-  <si>
-    <t>17.99</t>
-  </si>
-  <si>
-    <t>432.01</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>28.06</t>
-  </si>
-  <si>
-    <t>673.94</t>
-  </si>
-  <si>
-    <t>8.7.2025</t>
-  </si>
-  <si>
-    <t>8600.00</t>
-  </si>
-  <si>
-    <t>860.00</t>
-  </si>
-  <si>
-    <t>7590.00</t>
-  </si>
-  <si>
-    <t>7740.00</t>
-  </si>
-  <si>
-    <t>4158.00</t>
-  </si>
-  <si>
-    <t>3375.00</t>
-  </si>
-  <si>
-    <t>כעשכעכגד</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>1665.00</t>
-  </si>
-  <si>
-    <t>931.00</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>1710.00</t>
-  </si>
-  <si>
-    <t>951.00</t>
-  </si>
-  <si>
-    <t>11400.00</t>
-  </si>
-  <si>
-    <t>10260.00</t>
-  </si>
-  <si>
-    <t>7400.00</t>
-  </si>
-  <si>
-    <t>740.00</t>
-  </si>
-  <si>
-    <t>6660.00</t>
-  </si>
-  <si>
-    <t>3724.00</t>
-  </si>
-  <si>
-    <t>105.75</t>
-  </si>
-  <si>
-    <t>294.25</t>
-  </si>
-  <si>
-    <t>394.25</t>
-  </si>
-  <si>
-    <t>194.25</t>
-  </si>
-  <si>
-    <t>317.25</t>
-  </si>
-  <si>
-    <t>1182.75</t>
-  </si>
-  <si>
-    <t>3350.00</t>
-  </si>
-  <si>
-    <t>2641.47</t>
-  </si>
-  <si>
-    <t>533.75</t>
-  </si>
-  <si>
-    <t>391.28</t>
-  </si>
-  <si>
-    <t>1458.72</t>
-  </si>
-  <si>
-    <t>724.72</t>
-  </si>
-  <si>
-    <t>3500.00</t>
-  </si>
-  <si>
-    <t>2759.75</t>
-  </si>
-  <si>
-    <t>634.50</t>
-  </si>
-  <si>
-    <t>2365.50</t>
-  </si>
-  <si>
-    <t>1067.50</t>
-  </si>
-  <si>
-    <t>2400.00</t>
-  </si>
-  <si>
-    <t>1892.40</t>
-  </si>
-  <si>
-    <t>401.85</t>
-  </si>
-  <si>
-    <t>1498.15</t>
-  </si>
-  <si>
-    <t>5700.00</t>
-  </si>
-  <si>
-    <t>4494.45</t>
-  </si>
-  <si>
     <t>782.55</t>
   </si>
   <si>
@@ -782,18 +722,6 @@
   </si>
   <si>
     <t>350.00</t>
-  </si>
-  <si>
-    <t>10800.00</t>
-  </si>
-  <si>
-    <t>9720.00</t>
-  </si>
-  <si>
-    <t>גדשכגדכשדגכדכגדשכ</t>
-  </si>
-  <si>
-    <t>701.00</t>
   </si>
   <si>
     <t>850.00</t>
@@ -1322,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1348,7 +1276,7 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1426,7 +1354,7 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
@@ -1602,7 +1530,7 @@
         <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="I2" t="s">
         <v>75</v>
@@ -1623,7 +1551,7 @@
         <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="Q2" t="s">
         <v>52</v>
@@ -1652,13 +1580,13 @@
         <v>158</v>
       </c>
       <c r="H3" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="I3" t="s">
         <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="K3" t="s">
         <v>75</v>
@@ -1673,10 +1601,10 @@
         <v>159</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="Q3" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1702,13 +1630,13 @@
         <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="I4" t="s">
         <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="K4" t="s">
         <v>75</v>
@@ -1723,10 +1651,10 @@
         <v>97</v>
       </c>
       <c r="P4" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="Q4" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1749,7 +1677,7 @@
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
         <v>130</v>
@@ -1758,7 +1686,7 @@
         <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="K5" t="s">
         <v>75</v>
@@ -1773,10 +1701,10 @@
         <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="Q5" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2475,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -2922,156 +2850,6 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>144</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L8" t="s">
-        <v>164</v>
-      </c>
-      <c r="M8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>144</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L10" t="s">
-        <v>173</v>
-      </c>
-      <c r="M10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
-      <c r="P10" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>175</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -3080,7 +2858,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -3231,16 +3009,16 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
         <v>77</v>
@@ -3252,7 +3030,7 @@
         <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3281,10 +3059,10 @@
         <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K4" t="s">
         <v>75</v>
@@ -3302,7 +3080,7 @@
         <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3328,13 +3106,13 @@
         <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I5" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="J5" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K5" t="s">
         <v>75</v>
@@ -3352,7 +3130,7 @@
         <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3360,7 +3138,7 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -3375,22 +3153,22 @@
         <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="L6" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="M6" t="s">
         <v>77</v>
@@ -3402,7 +3180,7 @@
         <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3434,7 +3212,7 @@
         <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="M7" t="s">
         <v>77</v>
@@ -3443,7 +3221,7 @@
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q7" t="s">
         <v>75</v>
@@ -3472,19 +3250,19 @@
         <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="I8" t="s">
         <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K8" t="s">
         <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M8" t="s">
         <v>77</v>
@@ -3493,10 +3271,10 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q8" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3522,19 +3300,19 @@
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="I9" t="s">
         <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K9" t="s">
         <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="M9" t="s">
         <v>77</v>
@@ -3543,10 +3321,10 @@
         <v>103</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q9" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3572,19 +3350,19 @@
         <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
         <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K10" t="s">
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M10" t="s">
         <v>77</v>
@@ -3596,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3622,19 +3400,19 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K11" t="s">
         <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="M11" t="s">
         <v>77</v>
@@ -3646,7 +3424,7 @@
         <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3672,19 +3450,19 @@
         <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="I12" t="s">
         <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K12" t="s">
         <v>94</v>
       </c>
       <c r="L12" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M12" t="s">
         <v>77</v>
@@ -3696,7 +3474,7 @@
         <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3722,19 +3500,19 @@
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="I13" t="s">
         <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K13" t="s">
         <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="M13" t="s">
         <v>77</v>
@@ -3746,7 +3524,7 @@
         <v>75</v>
       </c>
       <c r="Q13" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3772,19 +3550,19 @@
         <v>94</v>
       </c>
       <c r="H14" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="I14" t="s">
         <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K14" t="s">
         <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s">
         <v>77</v>
@@ -3796,7 +3574,7 @@
         <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3822,13 +3600,13 @@
         <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="I15" t="s">
         <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K15" t="s">
         <v>75</v>
@@ -3846,7 +3624,7 @@
         <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3872,19 +3650,19 @@
         <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="I16" t="s">
         <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
         <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s">
         <v>77</v>
@@ -3896,7 +3674,7 @@
         <v>75</v>
       </c>
       <c r="Q16" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3922,13 +3700,13 @@
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="I17" t="s">
         <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
         <v>75</v>
@@ -3946,157 +3724,7 @@
         <v>75</v>
       </c>
       <c r="Q17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>147</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" t="s">
-        <v>200</v>
-      </c>
-      <c r="L18" t="s">
-        <v>201</v>
-      </c>
-      <c r="M18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>147</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s">
-        <v>135</v>
-      </c>
-      <c r="K19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" t="s">
-        <v>159</v>
-      </c>
-      <c r="P19" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>147</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" t="s">
-        <v>204</v>
-      </c>
-      <c r="K20" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4205,19 +3833,19 @@
         <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
         <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="M2" t="s">
         <v>77</v>
@@ -4229,7 +3857,7 @@
         <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4255,19 +3883,19 @@
         <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="I3" t="s">
         <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="K3" t="s">
         <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
         <v>77</v>
@@ -4279,7 +3907,7 @@
         <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4305,19 +3933,19 @@
         <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="I4" t="s">
         <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K4" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M4" t="s">
         <v>77</v>
@@ -4329,7 +3957,7 @@
         <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4355,13 +3983,13 @@
         <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
         <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="K5" t="s">
         <v>75</v>
@@ -4379,7 +4007,7 @@
         <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4405,19 +4033,19 @@
         <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="I6" t="s">
         <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="K6" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="L6" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M6" t="s">
         <v>77</v>
@@ -4429,7 +4057,7 @@
         <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4455,13 +4083,13 @@
         <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="I7" t="s">
         <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="K7" t="s">
         <v>75</v>
@@ -4479,7 +4107,7 @@
         <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4505,19 +4133,19 @@
         <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="I8" t="s">
         <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="K8" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="L8" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M8" t="s">
         <v>77</v>
@@ -4529,7 +4157,7 @@
         <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4555,13 +4183,13 @@
         <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="I9" t="s">
         <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="K9" t="s">
         <v>75</v>
@@ -4579,7 +4207,7 @@
         <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4605,19 +4233,19 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="I10" t="s">
         <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="K10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="L10" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M10" t="s">
         <v>77</v>
@@ -4629,7 +4257,7 @@
         <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4655,13 +4283,13 @@
         <v>134</v>
       </c>
       <c r="H11" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="K11" t="s">
         <v>75</v>
@@ -4679,7 +4307,7 @@
         <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4705,19 +4333,19 @@
         <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="I12" t="s">
         <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="K12" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="L12" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="M12" t="s">
         <v>77</v>
@@ -4729,7 +4357,7 @@
         <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4755,13 +4383,13 @@
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="I13" t="s">
         <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="K13" t="s">
         <v>75</v>
@@ -4779,7 +4407,7 @@
         <v>75</v>
       </c>
       <c r="Q13" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -4787,7 +4415,7 @@
         <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -4805,19 +4433,19 @@
         <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="I14" t="s">
         <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K14" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="L14" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="M14" t="s">
         <v>77</v>
@@ -4829,7 +4457,7 @@
         <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -4837,7 +4465,7 @@
         <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -4852,16 +4480,16 @@
         <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="H15" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="I15" t="s">
         <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K15" t="s">
         <v>75</v>
@@ -4879,7 +4507,7 @@
         <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4887,7 +4515,7 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -4905,13 +4533,13 @@
         <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="I16" t="s">
         <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
         <v>75</v>
@@ -4929,7 +4557,7 @@
         <v>75</v>
       </c>
       <c r="Q16" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4937,7 +4565,7 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -4955,19 +4583,19 @@
         <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="I17" t="s">
         <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s">
         <v>77</v>
@@ -4979,7 +4607,7 @@
         <v>75</v>
       </c>
       <c r="Q17" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -4987,7 +4615,7 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -5005,13 +4633,13 @@
         <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="I18" t="s">
         <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="K18" t="s">
         <v>75</v>
@@ -5029,7 +4657,7 @@
         <v>75</v>
       </c>
       <c r="Q18" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -5037,7 +4665,7 @@
         <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -5055,13 +4683,13 @@
         <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="I19" t="s">
         <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s">
         <v>75</v>
@@ -5079,7 +4707,7 @@
         <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5191,10 +4819,10 @@
         <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="K2" t="s">
         <v>37</v>
@@ -5241,10 +4869,10 @@
         <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="J3" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="K3" t="s">
         <v>75</v>
@@ -5262,7 +4890,7 @@
         <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5291,10 +4919,10 @@
         <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="K4" t="s">
         <v>75</v>
@@ -5312,7 +4940,7 @@
         <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5326,25 +4954,25 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="H5" t="s">
         <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="J5" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="K5" t="s">
         <v>75</v>
@@ -5362,7 +4990,7 @@
         <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5373,7 +5001,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -5477,13 +5105,13 @@
         <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="K2" t="s">
         <v>158</v>
       </c>
       <c r="L2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="M2" t="s">
         <v>77</v>
@@ -5542,10 +5170,10 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="Q3" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5571,19 +5199,19 @@
         <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="I4" t="s">
         <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K4" t="s">
         <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M4" t="s">
         <v>77</v>
@@ -5592,160 +5220,10 @@
         <v>97</v>
       </c>
       <c r="P4" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="Q4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>145</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>251</v>
-      </c>
-      <c r="K5" t="s">
-        <v>254</v>
-      </c>
-      <c r="L5" t="s">
-        <v>255</v>
-      </c>
-      <c r="M5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" t="s">
-        <v>159</v>
-      </c>
-      <c r="P5" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>145</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5860,7 +5338,7 @@
         <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
@@ -5875,7 +5353,7 @@
         <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="Q2" t="s">
         <v>47</v>
@@ -5901,7 +5379,7 @@
         <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
         <v>153</v>
@@ -5910,7 +5388,7 @@
         <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="K3" t="s">
         <v>75</v>
@@ -5925,10 +5403,10 @@
         <v>159</v>
       </c>
       <c r="P3" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="Q3" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/server/jobs/דוח_מכירות_2025-06-30_עד_2025-07-30.xlsx
+++ b/server/jobs/דוח_מכירות_2025-06-30_עד_2025-07-30.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="255">
   <si>
     <t>חודש</t>
   </si>
@@ -182,6 +182,21 @@
   </si>
   <si>
     <t>2037.50</t>
+  </si>
+  <si>
+    <t>בסך הכל</t>
+  </si>
+  <si>
+    <t>117015.00</t>
+  </si>
+  <si>
+    <t>100941.32</t>
+  </si>
+  <si>
+    <t>27898.80</t>
+  </si>
+  <si>
+    <t>16073.68</t>
   </si>
   <si>
     <t>מספר עסקה</t>
@@ -776,7 +791,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -784,13 +799,21 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -805,8 +828,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,7 +1173,7 @@
   <sheetPr>
     <tabColor rgb="FFB6D7A8"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -1422,6 +1446,32 @@
       </c>
       <c r="H10" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1456,55 +1506,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1512,31 +1562,31 @@
         <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
@@ -1545,13 +1595,13 @@
         <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q2" t="s">
         <v>52</v>
@@ -1562,49 +1612,49 @@
         <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1612,49 +1662,49 @@
         <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" t="s">
         <v>245</v>
       </c>
-      <c r="K4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P4" t="s">
-        <v>240</v>
-      </c>
       <c r="Q4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1662,49 +1712,49 @@
         <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1739,55 +1789,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1795,49 +1845,49 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1845,49 +1895,49 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1895,7 +1945,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1907,31 +1957,31 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1939,49 +1989,49 @@
         <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" t="s">
         <v>97</v>
       </c>
-      <c r="P5" t="s">
-        <v>92</v>
-      </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1989,49 +2039,49 @@
         <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2039,49 +2089,49 @@
         <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2089,49 +2139,49 @@
         <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2139,49 +2189,49 @@
         <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2189,49 +2239,49 @@
         <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2266,55 +2316,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2322,31 +2372,31 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -2355,13 +2405,13 @@
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -2372,49 +2422,49 @@
         <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2422,49 +2472,49 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2499,55 +2549,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2555,49 +2605,49 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2605,49 +2655,49 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2655,49 +2705,49 @@
         <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2705,49 +2755,49 @@
         <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2755,49 +2805,49 @@
         <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2805,49 +2855,49 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2882,55 +2932,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2938,46 +2988,46 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
         <v>33</v>
@@ -2988,49 +3038,49 @@
         <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" t="s">
         <v>164</v>
       </c>
-      <c r="M3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" t="s">
-        <v>159</v>
-      </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3038,49 +3088,49 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3088,49 +3138,49 @@
         <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3138,49 +3188,49 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3188,7 +3238,7 @@
         <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -3200,31 +3250,31 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3232,49 +3282,49 @@
         <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3282,49 +3332,49 @@
         <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" t="s">
         <v>183</v>
       </c>
-      <c r="K9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>183</v>
-      </c>
-      <c r="M9" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" t="s">
-        <v>178</v>
-      </c>
       <c r="Q9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3332,49 +3382,49 @@
         <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3382,49 +3432,49 @@
         <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3432,49 +3482,49 @@
         <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3482,49 +3532,49 @@
         <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3532,49 +3582,49 @@
         <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q14" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3582,49 +3632,49 @@
         <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3632,49 +3682,49 @@
         <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q16" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3682,49 +3732,49 @@
         <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q17" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3759,55 +3809,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3815,49 +3865,49 @@
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K2" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3865,49 +3915,49 @@
         <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" t="s">
         <v>78</v>
       </c>
-      <c r="J3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" t="s">
-        <v>73</v>
-      </c>
       <c r="L3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3915,49 +3965,49 @@
         <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3965,49 +4015,49 @@
         <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4015,49 +4065,49 @@
         <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4065,49 +4115,49 @@
         <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4115,49 +4165,49 @@
         <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4165,49 +4215,49 @@
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4215,49 +4265,49 @@
         <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4265,49 +4315,49 @@
         <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4315,49 +4365,49 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4365,49 +4415,49 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -4415,49 +4465,49 @@
         <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K14" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L14" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q14" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -4465,49 +4515,49 @@
         <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H15" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q15" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4515,49 +4565,49 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q16" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4565,49 +4615,49 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q17" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -4615,49 +4665,49 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q18" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -4665,49 +4715,49 @@
         <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q19" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4742,55 +4792,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4798,31 +4848,31 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K2" t="s">
         <v>37</v>
@@ -4831,13 +4881,13 @@
         <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
         <v>38</v>
@@ -4848,49 +4898,49 @@
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4898,49 +4948,49 @@
         <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="J4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4948,49 +4998,49 @@
         <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="J5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5025,55 +5075,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5081,46 +5131,46 @@
         <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
         <v>48</v>
@@ -5131,49 +5181,49 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5181,49 +5231,49 @@
         <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5258,55 +5308,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5314,31 +5364,31 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
@@ -5347,13 +5397,13 @@
         <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q2" t="s">
         <v>47</v>
@@ -5364,49 +5414,49 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" t="s">
         <v>158</v>
       </c>
-      <c r="G3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" t="s">
-        <v>153</v>
-      </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/server/jobs/דוח_מכירות_2025-06-30_עד_2025-07-30.xlsx
+++ b/server/jobs/דוח_מכירות_2025-06-30_עד_2025-07-30.xlsx
@@ -14,13 +14,15 @@
     <sheet sheetId="8" name="דעמית רהיטים בעמ" state="visible" r:id="rId11"/>
     <sheet sheetId="9" name="דיזיין רהיטי מעצבים בעמ" state="visible" r:id="rId12"/>
     <sheet sheetId="10" name="מחסני ריהוט" state="visible" r:id="rId13"/>
+    <sheet sheetId="11" name="ליין נגריית עיצוב 0524538833 שר" state="visible" r:id="rId14"/>
+    <sheet sheetId="12" name="דניאל עודפים בעמ" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="296">
   <si>
     <t>חודש</t>
   </si>
@@ -52,714 +54,837 @@
     <t>אודל רהיטים בע"מ HOME FIX</t>
   </si>
   <si>
-    <t>13500.00</t>
-  </si>
-  <si>
-    <t>11475.00</t>
+    <t>24800.00</t>
+  </si>
+  <si>
+    <t>21080.00</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>4174.00</t>
-  </si>
-  <si>
-    <t>2025.00</t>
+    <t>13271.00</t>
+  </si>
+  <si>
+    <t>3720.00</t>
   </si>
   <si>
     <t>טאץ' רהיטים</t>
   </si>
   <si>
+    <t>31400.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>18090.00</t>
+  </si>
+  <si>
+    <t>דורון שיווק</t>
+  </si>
+  <si>
+    <t>20710.00</t>
+  </si>
+  <si>
+    <t>18639.00</t>
+  </si>
+  <si>
+    <t>11219.00</t>
+  </si>
+  <si>
+    <t>2071.00</t>
+  </si>
+  <si>
+    <t>גלובל רהיטים</t>
+  </si>
+  <si>
+    <t>34380.00</t>
+  </si>
+  <si>
+    <t>30942.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>18984.00</t>
+  </si>
+  <si>
+    <t>3438.00</t>
+  </si>
+  <si>
+    <t>רהיטי מעיין</t>
+  </si>
+  <si>
+    <t>28450.00</t>
+  </si>
+  <si>
+    <t>22432.82</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>18115.00</t>
+  </si>
+  <si>
+    <t>6017.18</t>
+  </si>
+  <si>
+    <t>מעיין אור ניהול ואחזקות בע"מ 0546200666</t>
+  </si>
+  <si>
+    <t>5125.00</t>
+  </si>
+  <si>
+    <t>3742.00</t>
+  </si>
+  <si>
+    <t>ד.עמית רהיטים בע"מ</t>
+  </si>
+  <si>
+    <t>5750.00</t>
+  </si>
+  <si>
+    <t>5175.00</t>
+  </si>
+  <si>
+    <t>3857.00</t>
+  </si>
+  <si>
+    <t>575.00</t>
+  </si>
+  <si>
+    <t>דיזיין רהיטי מעצבים בע"מ</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>5950.00</t>
+  </si>
+  <si>
+    <t>4204.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>מחסני ריהוט</t>
+  </si>
+  <si>
+    <t>8150.00</t>
+  </si>
+  <si>
+    <t>6112.50</t>
+  </si>
+  <si>
+    <t>5049.00</t>
+  </si>
+  <si>
+    <t>2037.50</t>
+  </si>
+  <si>
+    <t>ליין נגריית עיצוב 0524538833 שרון</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>2591.00</t>
+  </si>
+  <si>
+    <t>דניאל עודפים בע"מ</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>3068.50</t>
+  </si>
+  <si>
+    <t>2282.00</t>
+  </si>
+  <si>
+    <t>731.50</t>
+  </si>
+  <si>
+    <t>בסך הכל</t>
+  </si>
+  <si>
+    <t>173965.00</t>
+  </si>
+  <si>
+    <t>154324.82</t>
+  </si>
+  <si>
+    <t>101404.00</t>
+  </si>
+  <si>
+    <t>19640.18</t>
+  </si>
+  <si>
+    <t>מספר עסקה</t>
+  </si>
+  <si>
+    <t>תאריך</t>
+  </si>
+  <si>
+    <t>לקוח</t>
+  </si>
+  <si>
+    <t>מוצר</t>
+  </si>
+  <si>
+    <t>כמות</t>
+  </si>
+  <si>
+    <t>מחיר ליחידה</t>
+  </si>
+  <si>
+    <t>סכום כולל לפריט</t>
+  </si>
+  <si>
+    <t>הנחה (חלק יחסי)</t>
+  </si>
+  <si>
+    <t>עלות משלוח (חלק יחסי)</t>
+  </si>
+  <si>
+    <t>סכום לאחר הנחה+משלוח לפריט</t>
+  </si>
+  <si>
+    <t>סכום כולל לעסקה</t>
+  </si>
+  <si>
+    <t>סכום לאחר הנחה לעסקה</t>
+  </si>
+  <si>
+    <t>מוכר</t>
+  </si>
+  <si>
+    <t>עלות מוצר</t>
+  </si>
+  <si>
+    <t>רווח פריט</t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>רווח כולל</t>
+  </si>
+  <si>
+    <t>30.6.2025</t>
+  </si>
+  <si>
+    <t>בדיקה</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>shaiel</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>325.00</t>
+  </si>
+  <si>
+    <t>3.7.2025</t>
+  </si>
+  <si>
+    <t>ספייס 80/190</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>1480.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>407.00</t>
+  </si>
+  <si>
+    <t>666.00</t>
+  </si>
+  <si>
+    <t>29.7.2025</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>3187.50</t>
+  </si>
+  <si>
+    <t>גכעהסבהז</t>
+  </si>
+  <si>
+    <t>הייבריד 140/190</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>1572.50</t>
+  </si>
+  <si>
+    <t>734.00</t>
+  </si>
+  <si>
+    <t>838.50</t>
+  </si>
+  <si>
+    <t>הייבריד 140/200</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>1615.00</t>
+  </si>
+  <si>
+    <t>759.00</t>
+  </si>
+  <si>
+    <t>856.00</t>
+  </si>
+  <si>
+    <t>30.7.2025</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>1997.50</t>
+  </si>
+  <si>
+    <t>נהמבהנמבהנ</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>3230.00</t>
+  </si>
+  <si>
+    <t>1712.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>555.00</t>
+  </si>
+  <si>
+    <t>3145.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>6375.00</t>
+  </si>
+  <si>
+    <t>1677.00</t>
+  </si>
+  <si>
+    <t>ספייס 120/200</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>70.09</t>
+  </si>
+  <si>
+    <t>2429.91</t>
+  </si>
+  <si>
     <t>5350.00</t>
   </si>
   <si>
-    <t>150.00</t>
+    <t>600.00</t>
   </si>
   <si>
     <t>1229.91</t>
   </si>
   <si>
-    <t>דורון שיווק</t>
-  </si>
-  <si>
-    <t>11210.00</t>
-  </si>
-  <si>
-    <t>10089.00</t>
-  </si>
-  <si>
-    <t>2477.00</t>
-  </si>
-  <si>
-    <t>1121.00</t>
-  </si>
-  <si>
-    <t>גלובל רהיטים</t>
-  </si>
-  <si>
-    <t>34380.00</t>
-  </si>
-  <si>
-    <t>30942.00</t>
-  </si>
-  <si>
-    <t>400.00</t>
-  </si>
-  <si>
-    <t>12513.04</t>
-  </si>
-  <si>
-    <t>3438.00</t>
-  </si>
-  <si>
-    <t>רהיטי מעיין</t>
-  </si>
-  <si>
-    <t>28450.00</t>
-  </si>
-  <si>
-    <t>22432.82</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>3166.75</t>
-  </si>
-  <si>
-    <t>6017.18</t>
-  </si>
-  <si>
-    <t>מעיין אור ניהול ואחזקות בע"מ 0546200666</t>
-  </si>
-  <si>
-    <t>5125.00</t>
+    <t>ספייס 140/190</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>39.25</t>
+  </si>
+  <si>
+    <t>1360.75</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>740.75</t>
+  </si>
+  <si>
+    <t>ספייס 140/200</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>40.65</t>
+  </si>
+  <si>
+    <t>1409.35</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>769.35</t>
+  </si>
+  <si>
+    <t>17100.00</t>
+  </si>
+  <si>
+    <t>הייבריד 200/200</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>הייבריד 80/190</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>477.00</t>
+  </si>
+  <si>
+    <t>1869.00</t>
+  </si>
+  <si>
+    <t>8950.00</t>
+  </si>
+  <si>
+    <t>2232.00</t>
+  </si>
+  <si>
+    <t>1141.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>1246.00</t>
+  </si>
+  <si>
+    <t>הייבריד 90/190</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>7.7.2025</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>-50.00</t>
+  </si>
+  <si>
+    <t>הייבריד 160/200</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>1935.00</t>
+  </si>
+  <si>
+    <t>3710.00</t>
+  </si>
+  <si>
+    <t>3339.00</t>
+  </si>
+  <si>
+    <t>858.00</t>
+  </si>
+  <si>
+    <t>1077.00</t>
+  </si>
+  <si>
+    <t>כרית FANTASY</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>1560.00</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>1404.00</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>15.7.2025</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>הייבריד 120/190</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>649.00</t>
+  </si>
+  <si>
+    <t>1402.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>8550.00</t>
+  </si>
+  <si>
+    <t>4755.00</t>
+  </si>
+  <si>
+    <t>53.96</t>
+  </si>
+  <si>
+    <t>1296.04</t>
+  </si>
+  <si>
+    <t>2780.00</t>
+  </si>
+  <si>
+    <t>2502.00</t>
+  </si>
+  <si>
+    <t>647.04</t>
+  </si>
+  <si>
+    <t>17.99</t>
+  </si>
+  <si>
+    <t>432.01</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>28.06</t>
+  </si>
+  <si>
+    <t>673.94</t>
+  </si>
+  <si>
+    <t>8.7.2025</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>7590.00</t>
+  </si>
+  <si>
+    <t>7740.00</t>
+  </si>
+  <si>
+    <t>4158.00</t>
+  </si>
+  <si>
+    <t>3375.00</t>
+  </si>
+  <si>
+    <t>כעשכעכגד</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>1665.00</t>
+  </si>
+  <si>
+    <t>931.00</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>1710.00</t>
+  </si>
+  <si>
+    <t>951.00</t>
+  </si>
+  <si>
+    <t>105.75</t>
+  </si>
+  <si>
+    <t>294.25</t>
+  </si>
+  <si>
+    <t>394.25</t>
+  </si>
+  <si>
+    <t>194.25</t>
+  </si>
+  <si>
+    <t>317.25</t>
+  </si>
+  <si>
+    <t>1182.75</t>
+  </si>
+  <si>
+    <t>3350.00</t>
+  </si>
+  <si>
+    <t>2641.47</t>
+  </si>
+  <si>
+    <t>533.75</t>
+  </si>
+  <si>
+    <t>391.28</t>
+  </si>
+  <si>
+    <t>1458.72</t>
+  </si>
+  <si>
+    <t>724.72</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2759.75</t>
+  </si>
+  <si>
+    <t>634.50</t>
+  </si>
+  <si>
+    <t>2365.50</t>
+  </si>
+  <si>
+    <t>1067.50</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>1892.40</t>
+  </si>
+  <si>
+    <t>401.85</t>
+  </si>
+  <si>
+    <t>1498.15</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>4494.45</t>
+  </si>
+  <si>
+    <t>782.55</t>
+  </si>
+  <si>
+    <t>2917.45</t>
+  </si>
+  <si>
+    <t>1449.45</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>4336.75</t>
+  </si>
+  <si>
+    <t>391.27</t>
+  </si>
+  <si>
+    <t>1458.73</t>
+  </si>
+  <si>
+    <t>724.73</t>
+  </si>
+  <si>
+    <t>454.73</t>
+  </si>
+  <si>
+    <t>1695.27</t>
+  </si>
+  <si>
+    <t>837.27</t>
+  </si>
+  <si>
+    <t>43.90</t>
+  </si>
+  <si>
+    <t>1456.10</t>
   </si>
   <si>
     <t>807.10</t>
   </si>
   <si>
-    <t>ד.עמית רהיטים בע"מ</t>
-  </si>
-  <si>
-    <t>3850.00</t>
-  </si>
-  <si>
-    <t>3465.00</t>
-  </si>
-  <si>
-    <t>2331.00</t>
-  </si>
-  <si>
-    <t>385.00</t>
-  </si>
-  <si>
-    <t>דיזיין רהיטי מעצבים בע"מ</t>
-  </si>
-  <si>
-    <t>7000.00</t>
-  </si>
-  <si>
-    <t>5950.00</t>
+    <t>54.15</t>
+  </si>
+  <si>
+    <t>1795.85</t>
+  </si>
+  <si>
+    <t>1061.85</t>
+  </si>
+  <si>
+    <t>14.63</t>
+  </si>
+  <si>
+    <t>485.37</t>
+  </si>
+  <si>
+    <t>כרית BLACK COOL NIGHT</t>
+  </si>
+  <si>
+    <t>1275.00</t>
+  </si>
+  <si>
+    <t>37.32</t>
+  </si>
+  <si>
+    <t>1237.68</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>נעכגבעיבגיעה</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>גדכשדכד</t>
   </si>
   <si>
     <t>650.00</t>
   </si>
   <si>
-    <t>1050.00</t>
-  </si>
-  <si>
-    <t>מחסני ריהוט</t>
-  </si>
-  <si>
-    <t>8150.00</t>
-  </si>
-  <si>
-    <t>6112.50</t>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>5100.00</t>
+  </si>
+  <si>
+    <t>2504.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>כסעזסבהעסכבגש</t>
   </si>
   <si>
     <t>550.00</t>
   </si>
   <si>
-    <t>2037.50</t>
-  </si>
-  <si>
-    <t>בסך הכל</t>
-  </si>
-  <si>
-    <t>117015.00</t>
-  </si>
-  <si>
-    <t>100941.32</t>
-  </si>
-  <si>
-    <t>27898.80</t>
-  </si>
-  <si>
-    <t>16073.68</t>
-  </si>
-  <si>
-    <t>מספר עסקה</t>
-  </si>
-  <si>
-    <t>תאריך</t>
-  </si>
-  <si>
-    <t>לקוח</t>
-  </si>
-  <si>
-    <t>מוצר</t>
-  </si>
-  <si>
-    <t>כמות</t>
-  </si>
-  <si>
-    <t>מחיר ליחידה</t>
-  </si>
-  <si>
-    <t>סכום כולל לפריט</t>
-  </si>
-  <si>
-    <t>הנחה (חלק יחסי)</t>
-  </si>
-  <si>
-    <t>עלות משלוח (חלק יחסי)</t>
-  </si>
-  <si>
-    <t>סכום לאחר הנחה+משלוח לפריט</t>
-  </si>
-  <si>
-    <t>סכום כולל לעסקה</t>
-  </si>
-  <si>
-    <t>סכום לאחר הנחה לעסקה</t>
-  </si>
-  <si>
-    <t>מוכר</t>
-  </si>
-  <si>
-    <t>עלות מוצר</t>
-  </si>
-  <si>
-    <t>רווח פריט</t>
-  </si>
-  <si>
-    <t>הערות</t>
-  </si>
-  <si>
-    <t>רווח כולל</t>
-  </si>
-  <si>
-    <t>30.6.2025</t>
-  </si>
-  <si>
-    <t>בדיקה</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>425.00</t>
-  </si>
-  <si>
-    <t>shaiel</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>325.00</t>
-  </si>
-  <si>
-    <t>3.7.2025</t>
-  </si>
-  <si>
-    <t>ספייס 80/190</t>
-  </si>
-  <si>
-    <t>800.00</t>
-  </si>
-  <si>
-    <t>1600.00</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>1480.00</t>
-  </si>
-  <si>
-    <t>680.00</t>
-  </si>
-  <si>
-    <t>407.00</t>
-  </si>
-  <si>
-    <t>666.00</t>
-  </si>
-  <si>
-    <t>29.7.2025</t>
-  </si>
-  <si>
-    <t>3750.00</t>
-  </si>
-  <si>
-    <t>3187.50</t>
-  </si>
-  <si>
-    <t>גכעהסבהז</t>
-  </si>
-  <si>
-    <t>הייבריד 140/190</t>
-  </si>
-  <si>
-    <t>1850.00</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>1572.50</t>
-  </si>
-  <si>
-    <t>734.00</t>
-  </si>
-  <si>
-    <t>838.50</t>
-  </si>
-  <si>
-    <t>הייבריד 140/200</t>
-  </si>
-  <si>
-    <t>1900.00</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>1615.00</t>
-  </si>
-  <si>
-    <t>759.00</t>
-  </si>
-  <si>
-    <t>856.00</t>
-  </si>
-  <si>
-    <t>30.7.2025</t>
-  </si>
-  <si>
-    <t>2350.00</t>
-  </si>
-  <si>
-    <t>1997.50</t>
-  </si>
-  <si>
-    <t>נהמבהנמבהנ</t>
-  </si>
-  <si>
-    <t>ספייס 120/200</t>
-  </si>
-  <si>
-    <t>1250.00</t>
-  </si>
-  <si>
-    <t>2500.00</t>
-  </si>
-  <si>
-    <t>70.09</t>
-  </si>
-  <si>
-    <t>2429.91</t>
-  </si>
-  <si>
-    <t>600.00</t>
-  </si>
-  <si>
-    <t>ספייס 140/190</t>
-  </si>
-  <si>
-    <t>1400.00</t>
-  </si>
-  <si>
-    <t>39.25</t>
-  </si>
-  <si>
-    <t>1360.75</t>
-  </si>
-  <si>
-    <t>620.00</t>
-  </si>
-  <si>
-    <t>740.75</t>
-  </si>
-  <si>
-    <t>ספייס 140/200</t>
-  </si>
-  <si>
-    <t>1450.00</t>
-  </si>
-  <si>
-    <t>40.65</t>
-  </si>
-  <si>
-    <t>1409.35</t>
-  </si>
-  <si>
-    <t>640.00</t>
-  </si>
-  <si>
-    <t>769.35</t>
-  </si>
-  <si>
-    <t>7.7.2025</t>
-  </si>
-  <si>
-    <t>1000.00</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>950.00</t>
-  </si>
-  <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>750.00</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>3000.00</t>
-  </si>
-  <si>
-    <t>2700.00</t>
-  </si>
-  <si>
-    <t>-50.00</t>
-  </si>
-  <si>
-    <t>הייבריד 160/200</t>
-  </si>
-  <si>
-    <t>2150.00</t>
-  </si>
-  <si>
-    <t>215.00</t>
-  </si>
-  <si>
-    <t>1935.00</t>
-  </si>
-  <si>
-    <t>3710.00</t>
-  </si>
-  <si>
-    <t>3339.00</t>
-  </si>
-  <si>
-    <t>858.00</t>
-  </si>
-  <si>
-    <t>1077.00</t>
-  </si>
-  <si>
-    <t>כרית FANTASY</t>
-  </si>
-  <si>
-    <t>780.00</t>
-  </si>
-  <si>
-    <t>1560.00</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>1404.00</t>
-  </si>
-  <si>
-    <t>520.00</t>
-  </si>
-  <si>
-    <t>364.00</t>
-  </si>
-  <si>
-    <t>15.7.2025</t>
-  </si>
-  <si>
-    <t>900.00</t>
-  </si>
-  <si>
-    <t>4000.00</t>
-  </si>
-  <si>
-    <t>3600.00</t>
-  </si>
-  <si>
-    <t>700.00</t>
-  </si>
-  <si>
-    <t>הייבריד 120/190</t>
-  </si>
-  <si>
-    <t>1500.00</t>
-  </si>
-  <si>
-    <t>649.00</t>
-  </si>
-  <si>
-    <t>1402.00</t>
-  </si>
-  <si>
-    <t>53.96</t>
-  </si>
-  <si>
-    <t>1296.04</t>
-  </si>
-  <si>
-    <t>2780.00</t>
-  </si>
-  <si>
-    <t>2502.00</t>
-  </si>
-  <si>
-    <t>647.04</t>
-  </si>
-  <si>
-    <t>17.99</t>
-  </si>
-  <si>
-    <t>432.01</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>28.06</t>
-  </si>
-  <si>
-    <t>673.94</t>
-  </si>
-  <si>
-    <t>8.7.2025</t>
-  </si>
-  <si>
-    <t>8600.00</t>
-  </si>
-  <si>
-    <t>860.00</t>
-  </si>
-  <si>
-    <t>7590.00</t>
-  </si>
-  <si>
-    <t>7740.00</t>
-  </si>
-  <si>
-    <t>4158.00</t>
-  </si>
-  <si>
-    <t>3375.00</t>
-  </si>
-  <si>
-    <t>כעשכעכגד</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>1665.00</t>
-  </si>
-  <si>
-    <t>931.00</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>1710.00</t>
-  </si>
-  <si>
-    <t>951.00</t>
-  </si>
-  <si>
-    <t>105.75</t>
-  </si>
-  <si>
-    <t>294.25</t>
-  </si>
-  <si>
-    <t>394.25</t>
-  </si>
-  <si>
-    <t>194.25</t>
-  </si>
-  <si>
-    <t>317.25</t>
-  </si>
-  <si>
-    <t>1182.75</t>
-  </si>
-  <si>
-    <t>3350.00</t>
-  </si>
-  <si>
-    <t>2641.47</t>
-  </si>
-  <si>
-    <t>533.75</t>
-  </si>
-  <si>
-    <t>391.28</t>
-  </si>
-  <si>
-    <t>1458.72</t>
-  </si>
-  <si>
-    <t>724.72</t>
-  </si>
-  <si>
-    <t>3500.00</t>
-  </si>
-  <si>
-    <t>2759.75</t>
-  </si>
-  <si>
-    <t>634.50</t>
-  </si>
-  <si>
-    <t>2365.50</t>
-  </si>
-  <si>
-    <t>1067.50</t>
-  </si>
-  <si>
-    <t>2400.00</t>
-  </si>
-  <si>
-    <t>1892.40</t>
-  </si>
-  <si>
-    <t>401.85</t>
-  </si>
-  <si>
-    <t>1498.15</t>
-  </si>
-  <si>
-    <t>5700.00</t>
-  </si>
-  <si>
-    <t>4494.45</t>
-  </si>
-  <si>
-    <t>3700.00</t>
-  </si>
-  <si>
-    <t>782.55</t>
-  </si>
-  <si>
-    <t>2917.45</t>
-  </si>
-  <si>
-    <t>1449.45</t>
-  </si>
-  <si>
-    <t>5500.00</t>
-  </si>
-  <si>
-    <t>4336.75</t>
-  </si>
-  <si>
-    <t>391.27</t>
-  </si>
-  <si>
-    <t>1458.73</t>
-  </si>
-  <si>
-    <t>724.73</t>
-  </si>
-  <si>
-    <t>454.73</t>
-  </si>
-  <si>
-    <t>1695.27</t>
-  </si>
-  <si>
-    <t>837.27</t>
-  </si>
-  <si>
-    <t>43.90</t>
-  </si>
-  <si>
-    <t>1456.10</t>
-  </si>
-  <si>
-    <t>54.15</t>
-  </si>
-  <si>
-    <t>1795.85</t>
-  </si>
-  <si>
-    <t>1061.85</t>
-  </si>
-  <si>
-    <t>14.63</t>
-  </si>
-  <si>
-    <t>485.37</t>
-  </si>
-  <si>
-    <t>כרית BLACK COOL NIGHT</t>
-  </si>
-  <si>
-    <t>1275.00</t>
-  </si>
-  <si>
-    <t>37.32</t>
-  </si>
-  <si>
-    <t>1237.68</t>
-  </si>
-  <si>
-    <t>1350.00</t>
-  </si>
-  <si>
-    <t>נעכגבעיבגיעה</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>850.00</t>
-  </si>
-  <si>
-    <t>גדכשדכד</t>
-  </si>
-  <si>
-    <t>6000.00</t>
-  </si>
-  <si>
-    <t>5100.00</t>
-  </si>
-  <si>
-    <t>2504.00</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>כסעזסבהעסכבגש</t>
-  </si>
-  <si>
     <t>375.00</t>
   </si>
   <si>
@@ -778,13 +903,13 @@
     <t>653.50</t>
   </si>
   <si>
-    <t>3800.00</t>
-  </si>
-  <si>
     <t>2850.00</t>
   </si>
   <si>
     <t>1332.00</t>
+  </si>
+  <si>
+    <t>1550.50</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1298,7 @@
   <sheetPr>
     <tabColor rgb="FFB6D7A8"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -1222,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1248,7 +1373,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1274,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1378,7 +1503,7 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
@@ -1448,30 +1573,82 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="1">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1">
         <v>48</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>58</v>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1506,55 +1683,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1562,31 +1739,31 @@
         <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
@@ -1595,16 +1772,16 @@
         <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1612,49 +1789,49 @@
         <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="H3" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="Q3" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1662,49 +1839,49 @@
         <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="Q4" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1712,49 +1889,49 @@
         <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P5" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="Q5" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1763,9 +1940,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -1789,499 +1966,155 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>139</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
-      <c r="P8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>143</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2290,9 +2123,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -2316,205 +2149,105 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
         <v>116</v>
       </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" t="s">
-        <v>119</v>
-      </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>131</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2523,9 +2256,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -2549,55 +2282,1315 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" t="s">
+        <v>158</v>
+      </c>
+      <c r="P10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2605,49 +3598,49 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2655,49 +3648,49 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2705,49 +3698,49 @@
         <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="K4" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="L4" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2755,49 +3748,49 @@
         <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2805,49 +3798,49 @@
         <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="K6" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="L6" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2855,49 +3848,99 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>165</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2932,55 +3975,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2988,46 +4031,46 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
         <v>33</v>
@@ -3038,49 +4081,49 @@
         <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="K3" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="L3" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3088,49 +4131,49 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3138,49 +4181,49 @@
         <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="I5" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="J5" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3188,49 +4231,49 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="K6" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="L6" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3238,7 +4281,7 @@
         <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -3250,31 +4293,31 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="Q7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3282,49 +4325,49 @@
         <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="Q8" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3332,49 +4375,49 @@
         <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="Q9" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3382,49 +4425,49 @@
         <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3432,49 +4475,49 @@
         <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3482,49 +4525,49 @@
         <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3532,49 +4575,49 @@
         <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3582,49 +4625,49 @@
         <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3632,49 +4675,49 @@
         <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3682,49 +4725,49 @@
         <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3732,49 +4775,49 @@
         <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P17" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3809,55 +4852,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3865,49 +4908,49 @@
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3915,49 +4958,49 @@
         <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3965,49 +5008,49 @@
         <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="L4" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4015,49 +5058,49 @@
         <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4065,49 +5108,49 @@
         <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="K6" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="L6" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4115,49 +5158,49 @@
         <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4165,49 +5208,49 @@
         <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="K8" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="L8" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4215,49 +5258,49 @@
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4265,49 +5308,49 @@
         <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="K10" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="L10" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4315,49 +5358,49 @@
         <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4365,49 +5408,49 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="L12" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4415,49 +5458,49 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N13" t="s">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -4465,49 +5508,49 @@
         <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="H14" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="K14" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N14" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -4515,49 +5558,49 @@
         <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N15" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4565,49 +5608,49 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4615,49 +5658,49 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="H17" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="K17" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="L17" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P17" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -4665,49 +5708,49 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -4715,49 +5758,49 @@
         <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="H19" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="P19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4792,55 +5835,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4848,31 +5891,31 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="J2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="K2" t="s">
         <v>37</v>
@@ -4881,16 +5924,16 @@
         <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4898,49 +5941,49 @@
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4948,49 +5991,49 @@
         <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="J4" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4998,49 +6041,49 @@
         <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="J5" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5051,7 +6094,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -5075,55 +6118,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5131,46 +6174,46 @@
         <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="L2" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
         <v>48</v>
@@ -5181,49 +6224,49 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="Q3" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5231,49 +6274,99 @@
         <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="Q4" t="s">
-        <v>186</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" t="s">
+        <v>227</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5308,55 +6401,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5364,31 +6457,31 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
@@ -5397,16 +6490,16 @@
         <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5414,49 +6507,49 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="Q3" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/server/jobs/דוח_מכירות_2025-06-30_עד_2025-07-30.xlsx
+++ b/server/jobs/דוח_מכירות_2025-06-30_עד_2025-07-30.xlsx
@@ -63,7 +63,7 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>13271.00</t>
+    <t>10113.50</t>
   </si>
   <si>
     <t>3720.00</t>
@@ -78,7 +78,7 @@
     <t>150.00</t>
   </si>
   <si>
-    <t>18090.00</t>
+    <t>17940.01</t>
   </si>
   <si>
     <t>דורון שיווק</t>
@@ -90,7 +90,7 @@
     <t>18639.00</t>
   </si>
   <si>
-    <t>11219.00</t>
+    <t>8998.00</t>
   </si>
   <si>
     <t>2071.00</t>
@@ -108,7 +108,7 @@
     <t>400.00</t>
   </si>
   <si>
-    <t>18984.00</t>
+    <t>15520.99</t>
   </si>
   <si>
     <t>3438.00</t>
@@ -126,7 +126,7 @@
     <t>200.00</t>
   </si>
   <si>
-    <t>18115.00</t>
+    <t>11897.82</t>
   </si>
   <si>
     <t>6017.18</t>
@@ -138,7 +138,7 @@
     <t>5125.00</t>
   </si>
   <si>
-    <t>3742.00</t>
+    <t>3592.00</t>
   </si>
   <si>
     <t>ד.עמית רהיטים בע"מ</t>
@@ -150,7 +150,7 @@
     <t>5175.00</t>
   </si>
   <si>
-    <t>3857.00</t>
+    <t>3282.00</t>
   </si>
   <si>
     <t>575.00</t>
@@ -165,7 +165,7 @@
     <t>5950.00</t>
   </si>
   <si>
-    <t>4204.00</t>
+    <t>3154.00</t>
   </si>
   <si>
     <t>1050.00</t>
@@ -180,7 +180,7 @@
     <t>6112.50</t>
   </si>
   <si>
-    <t>5049.00</t>
+    <t>3011.50</t>
   </si>
   <si>
     <t>2037.50</t>
@@ -204,282 +204,285 @@
     <t>3068.50</t>
   </si>
   <si>
+    <t>1550.50</t>
+  </si>
+  <si>
+    <t>731.50</t>
+  </si>
+  <si>
+    <t>בסך הכל</t>
+  </si>
+  <si>
+    <t>173965.00</t>
+  </si>
+  <si>
+    <t>154324.82</t>
+  </si>
+  <si>
+    <t>81651.32</t>
+  </si>
+  <si>
+    <t>19640.18</t>
+  </si>
+  <si>
+    <t>מספר עסקה</t>
+  </si>
+  <si>
+    <t>תאריך</t>
+  </si>
+  <si>
+    <t>לקוח</t>
+  </si>
+  <si>
+    <t>מוצר</t>
+  </si>
+  <si>
+    <t>כמות</t>
+  </si>
+  <si>
+    <t>מחיר ליחידה</t>
+  </si>
+  <si>
+    <t>סכום כולל לפריט</t>
+  </si>
+  <si>
+    <t>הנחה (חלק יחסי)</t>
+  </si>
+  <si>
+    <t>עלות משלוח (חלק יחסי)</t>
+  </si>
+  <si>
+    <t>סכום לאחר הנחה+משלוח לפריט</t>
+  </si>
+  <si>
+    <t>סכום כולל לעסקה</t>
+  </si>
+  <si>
+    <t>סכום לאחר הנחה לעסקה</t>
+  </si>
+  <si>
+    <t>מוכר</t>
+  </si>
+  <si>
+    <t>עלות מוצר</t>
+  </si>
+  <si>
+    <t>רווח פריט</t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>רווח כולל</t>
+  </si>
+  <si>
+    <t>30.6.2025</t>
+  </si>
+  <si>
+    <t>בדיקה</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>shaiel</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>325.00</t>
+  </si>
+  <si>
+    <t>3.7.2025</t>
+  </si>
+  <si>
+    <t>ספייס 80/190</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>1480.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>407.00</t>
+  </si>
+  <si>
+    <t>666.00</t>
+  </si>
+  <si>
+    <t>29.7.2025</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>3187.50</t>
+  </si>
+  <si>
+    <t>גכעהסבהז</t>
+  </si>
+  <si>
+    <t>הייבריד 140/190</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>1572.50</t>
+  </si>
+  <si>
+    <t>734.00</t>
+  </si>
+  <si>
+    <t>838.50</t>
+  </si>
+  <si>
+    <t>הייבריד 140/200</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>1615.00</t>
+  </si>
+  <si>
+    <t>759.00</t>
+  </si>
+  <si>
+    <t>856.00</t>
+  </si>
+  <si>
+    <t>30.7.2025</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>1997.50</t>
+  </si>
+  <si>
+    <t>נהמבהנמבהנ</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>3230.00</t>
+  </si>
+  <si>
+    <t>1712.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>555.00</t>
+  </si>
+  <si>
+    <t>3145.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>6375.00</t>
+  </si>
+  <si>
+    <t>1677.00</t>
+  </si>
+  <si>
+    <t>ספייס 120/200</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>70.09</t>
+  </si>
+  <si>
+    <t>2429.91</t>
+  </si>
+  <si>
+    <t>5350.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1229.91</t>
+  </si>
+  <si>
+    <t>ספייס 140/190</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>39.25</t>
+  </si>
+  <si>
+    <t>1360.75</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>740.75</t>
+  </si>
+  <si>
+    <t>ספייס 140/200</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>40.65</t>
+  </si>
+  <si>
+    <t>1409.35</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>769.35</t>
+  </si>
+  <si>
+    <t>17100.00</t>
+  </si>
+  <si>
     <t>2282.00</t>
   </si>
   <si>
-    <t>731.50</t>
-  </si>
-  <si>
-    <t>בסך הכל</t>
-  </si>
-  <si>
-    <t>173965.00</t>
-  </si>
-  <si>
-    <t>154324.82</t>
-  </si>
-  <si>
-    <t>101404.00</t>
-  </si>
-  <si>
-    <t>19640.18</t>
-  </si>
-  <si>
-    <t>מספר עסקה</t>
-  </si>
-  <si>
-    <t>תאריך</t>
-  </si>
-  <si>
-    <t>לקוח</t>
-  </si>
-  <si>
-    <t>מוצר</t>
-  </si>
-  <si>
-    <t>כמות</t>
-  </si>
-  <si>
-    <t>מחיר ליחידה</t>
-  </si>
-  <si>
-    <t>סכום כולל לפריט</t>
-  </si>
-  <si>
-    <t>הנחה (חלק יחסי)</t>
-  </si>
-  <si>
-    <t>עלות משלוח (חלק יחסי)</t>
-  </si>
-  <si>
-    <t>סכום לאחר הנחה+משלוח לפריט</t>
-  </si>
-  <si>
-    <t>סכום כולל לעסקה</t>
-  </si>
-  <si>
-    <t>סכום לאחר הנחה לעסקה</t>
-  </si>
-  <si>
-    <t>מוכר</t>
-  </si>
-  <si>
-    <t>עלות מוצר</t>
-  </si>
-  <si>
-    <t>רווח פריט</t>
-  </si>
-  <si>
-    <t>הערות</t>
-  </si>
-  <si>
-    <t>רווח כולל</t>
-  </si>
-  <si>
-    <t>30.6.2025</t>
-  </si>
-  <si>
-    <t>בדיקה</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>425.00</t>
-  </si>
-  <si>
-    <t>shaiel</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>325.00</t>
-  </si>
-  <si>
-    <t>3.7.2025</t>
-  </si>
-  <si>
-    <t>ספייס 80/190</t>
-  </si>
-  <si>
-    <t>800.00</t>
-  </si>
-  <si>
-    <t>1600.00</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>1480.00</t>
-  </si>
-  <si>
-    <t>680.00</t>
-  </si>
-  <si>
-    <t>407.00</t>
-  </si>
-  <si>
-    <t>666.00</t>
-  </si>
-  <si>
-    <t>29.7.2025</t>
-  </si>
-  <si>
-    <t>3750.00</t>
-  </si>
-  <si>
-    <t>3187.50</t>
-  </si>
-  <si>
-    <t>גכעהסבהז</t>
-  </si>
-  <si>
-    <t>הייבריד 140/190</t>
-  </si>
-  <si>
-    <t>1850.00</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>1572.50</t>
-  </si>
-  <si>
-    <t>734.00</t>
-  </si>
-  <si>
-    <t>838.50</t>
-  </si>
-  <si>
-    <t>הייבריד 140/200</t>
-  </si>
-  <si>
-    <t>1900.00</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>1615.00</t>
-  </si>
-  <si>
-    <t>759.00</t>
-  </si>
-  <si>
-    <t>856.00</t>
-  </si>
-  <si>
-    <t>30.7.2025</t>
-  </si>
-  <si>
-    <t>2350.00</t>
-  </si>
-  <si>
-    <t>1997.50</t>
-  </si>
-  <si>
-    <t>נהמבהנמבהנ</t>
-  </si>
-  <si>
-    <t>570.00</t>
-  </si>
-  <si>
-    <t>3230.00</t>
-  </si>
-  <si>
-    <t>1712.00</t>
-  </si>
-  <si>
-    <t>3700.00</t>
-  </si>
-  <si>
-    <t>555.00</t>
-  </si>
-  <si>
-    <t>3145.00</t>
-  </si>
-  <si>
-    <t>7500.00</t>
-  </si>
-  <si>
-    <t>6375.00</t>
-  </si>
-  <si>
-    <t>1677.00</t>
-  </si>
-  <si>
-    <t>ספייס 120/200</t>
-  </si>
-  <si>
-    <t>1250.00</t>
-  </si>
-  <si>
-    <t>2500.00</t>
-  </si>
-  <si>
-    <t>70.09</t>
-  </si>
-  <si>
-    <t>2429.91</t>
-  </si>
-  <si>
-    <t>5350.00</t>
-  </si>
-  <si>
-    <t>600.00</t>
-  </si>
-  <si>
-    <t>1229.91</t>
-  </si>
-  <si>
-    <t>ספייס 140/190</t>
-  </si>
-  <si>
-    <t>1400.00</t>
-  </si>
-  <si>
-    <t>39.25</t>
-  </si>
-  <si>
-    <t>1360.75</t>
-  </si>
-  <si>
-    <t>620.00</t>
-  </si>
-  <si>
-    <t>740.75</t>
-  </si>
-  <si>
-    <t>ספייס 140/200</t>
-  </si>
-  <si>
-    <t>1450.00</t>
-  </si>
-  <si>
-    <t>40.65</t>
-  </si>
-  <si>
-    <t>1409.35</t>
-  </si>
-  <si>
-    <t>640.00</t>
-  </si>
-  <si>
-    <t>769.35</t>
-  </si>
-  <si>
-    <t>17100.00</t>
-  </si>
-  <si>
     <t>הייבריד 200/200</t>
   </si>
   <si>
@@ -907,9 +910,6 @@
   </si>
   <si>
     <t>1332.00</t>
-  </si>
-  <si>
-    <t>1550.50</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1739,7 @@
         <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
@@ -1754,16 +1754,16 @@
         <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I2" t="s">
         <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
@@ -1778,10 +1778,10 @@
         <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1789,31 +1789,31 @@
         <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I3" t="s">
         <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K3" t="s">
         <v>88</v>
@@ -1825,13 +1825,13 @@
         <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
         <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1857,13 +1857,13 @@
         <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I4" t="s">
         <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K4" t="s">
         <v>88</v>
@@ -1878,10 +1878,10 @@
         <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
         <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -1907,13 +1907,13 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I5" t="s">
         <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -1928,10 +1928,10 @@
         <v>116</v>
       </c>
       <c r="P5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2064,7 @@
         <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>295</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3207,7 @@
         <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3230,7 +3230,7 @@
         <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H6" t="s">
         <v>88</v>
@@ -3239,7 +3239,7 @@
         <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K6" t="s">
         <v>88</v>
@@ -3257,7 +3257,7 @@
         <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3271,16 +3271,16 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
         <v>88</v>
@@ -3289,7 +3289,7 @@
         <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K7" t="s">
         <v>88</v>
@@ -3301,13 +3301,13 @@
         <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P7" t="s">
         <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3342,10 +3342,10 @@
         <v>125</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M8" t="s">
         <v>90</v>
@@ -3357,7 +3357,7 @@
         <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3421,16 +3421,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H10" t="s">
         <v>88</v>
@@ -3439,7 +3439,7 @@
         <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K10" t="s">
         <v>88</v>
@@ -3451,13 +3451,13 @@
         <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P10" t="s">
         <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3471,16 +3471,16 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H11" t="s">
         <v>88</v>
@@ -3489,7 +3489,7 @@
         <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K11" t="s">
         <v>88</v>
@@ -3501,13 +3501,13 @@
         <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P11" t="s">
         <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3598,7 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3613,22 +3613,22 @@
         <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
         <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K2" t="s">
         <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
         <v>90</v>
@@ -3640,7 +3640,7 @@
         <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3648,7 +3648,7 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3666,19 +3666,19 @@
         <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M3" t="s">
         <v>90</v>
@@ -3690,7 +3690,7 @@
         <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3698,49 +3698,49 @@
         <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
         <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M4" t="s">
         <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P4" t="s">
         <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3748,31 +3748,31 @@
         <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I5" t="s">
         <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -3784,13 +3784,13 @@
         <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P5" t="s">
         <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3798,7 +3798,7 @@
         <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -3813,7 +3813,7 @@
         <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
         <v>91</v>
@@ -3822,13 +3822,13 @@
         <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M6" t="s">
         <v>90</v>
@@ -3840,7 +3840,7 @@
         <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3848,31 +3848,31 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
         <v>176</v>
       </c>
-      <c r="H7" t="s">
-        <v>175</v>
-      </c>
       <c r="I7" t="s">
         <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K7" t="s">
         <v>88</v>
@@ -3884,13 +3884,13 @@
         <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P7" t="s">
         <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3913,22 +3913,22 @@
         <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I8" t="s">
         <v>88</v>
       </c>
       <c r="J8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" t="s">
         <v>203</v>
       </c>
-      <c r="K8" t="s">
-        <v>202</v>
-      </c>
       <c r="L8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M8" t="s">
         <v>90</v>
@@ -3940,7 +3940,7 @@
         <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4031,7 +4031,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -4049,19 +4049,19 @@
         <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K2" t="s">
         <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
         <v>90</v>
@@ -4081,49 +4081,49 @@
         <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M3" t="s">
         <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P3" t="s">
         <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -4149,13 +4149,13 @@
         <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K4" t="s">
         <v>88</v>
@@ -4173,7 +4173,7 @@
         <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4181,31 +4181,31 @@
         <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -4223,7 +4223,7 @@
         <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4231,49 +4231,49 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M6" t="s">
         <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P6" t="s">
         <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4305,7 +4305,7 @@
         <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M7" t="s">
         <v>90</v>
@@ -4314,7 +4314,7 @@
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q7" t="s">
         <v>88</v>
@@ -4343,19 +4343,19 @@
         <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I8" t="s">
         <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K8" t="s">
         <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M8" t="s">
         <v>90</v>
@@ -4364,10 +4364,10 @@
         <v>110</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4393,19 +4393,19 @@
         <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
         <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K9" t="s">
         <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M9" t="s">
         <v>90</v>
@@ -4414,10 +4414,10 @@
         <v>116</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4443,19 +4443,19 @@
         <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I10" t="s">
         <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K10" t="s">
         <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M10" t="s">
         <v>90</v>
@@ -4467,7 +4467,7 @@
         <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4493,19 +4493,19 @@
         <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I11" t="s">
         <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K11" t="s">
         <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M11" t="s">
         <v>90</v>
@@ -4517,7 +4517,7 @@
         <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4543,19 +4543,19 @@
         <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I12" t="s">
         <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K12" t="s">
         <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M12" t="s">
         <v>90</v>
@@ -4567,7 +4567,7 @@
         <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4593,19 +4593,19 @@
         <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I13" t="s">
         <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K13" t="s">
         <v>113</v>
       </c>
       <c r="L13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M13" t="s">
         <v>90</v>
@@ -4617,7 +4617,7 @@
         <v>88</v>
       </c>
       <c r="Q13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -4643,19 +4643,19 @@
         <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I14" t="s">
         <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K14" t="s">
         <v>103</v>
       </c>
       <c r="L14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M14" t="s">
         <v>90</v>
@@ -4667,7 +4667,7 @@
         <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -4693,13 +4693,13 @@
         <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K15" t="s">
         <v>88</v>
@@ -4717,7 +4717,7 @@
         <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4743,19 +4743,19 @@
         <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I16" t="s">
         <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K16" t="s">
         <v>103</v>
       </c>
       <c r="L16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M16" t="s">
         <v>90</v>
@@ -4767,7 +4767,7 @@
         <v>88</v>
       </c>
       <c r="Q16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4793,13 +4793,13 @@
         <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I17" t="s">
         <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K17" t="s">
         <v>88</v>
@@ -4817,7 +4817,7 @@
         <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4908,7 +4908,7 @@
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -4926,19 +4926,19 @@
         <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
         <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K2" t="s">
         <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
         <v>90</v>
@@ -4950,7 +4950,7 @@
         <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4958,7 +4958,7 @@
         <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -4976,19 +4976,19 @@
         <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I3" t="s">
         <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K3" t="s">
         <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M3" t="s">
         <v>90</v>
@@ -5000,7 +5000,7 @@
         <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5008,49 +5008,49 @@
         <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I4" t="s">
         <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M4" t="s">
         <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P4" t="s">
         <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5058,7 +5058,7 @@
         <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -5076,13 +5076,13 @@
         <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I5" t="s">
         <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -5100,7 +5100,7 @@
         <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5108,7 +5108,7 @@
         <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -5126,19 +5126,19 @@
         <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
         <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M6" t="s">
         <v>90</v>
@@ -5150,7 +5150,7 @@
         <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5158,31 +5158,31 @@
         <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
         <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K7" t="s">
         <v>88</v>
@@ -5194,13 +5194,13 @@
         <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P7" t="s">
         <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -5226,19 +5226,19 @@
         <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I8" t="s">
         <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M8" t="s">
         <v>90</v>
@@ -5250,7 +5250,7 @@
         <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -5258,31 +5258,31 @@
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I9" t="s">
         <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K9" t="s">
         <v>88</v>
@@ -5294,13 +5294,13 @@
         <v>90</v>
       </c>
       <c r="N9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P9" t="s">
         <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5308,7 +5308,7 @@
         <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -5326,19 +5326,19 @@
         <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I10" t="s">
         <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M10" t="s">
         <v>90</v>
@@ -5350,7 +5350,7 @@
         <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5358,31 +5358,31 @@
         <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
         <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K11" t="s">
         <v>88</v>
@@ -5394,13 +5394,13 @@
         <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P11" t="s">
         <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -5408,7 +5408,7 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -5426,19 +5426,19 @@
         <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I12" t="s">
         <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M12" t="s">
         <v>90</v>
@@ -5450,7 +5450,7 @@
         <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -5458,7 +5458,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -5476,13 +5476,13 @@
         <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I13" t="s">
         <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K13" t="s">
         <v>88</v>
@@ -5500,7 +5500,7 @@
         <v>88</v>
       </c>
       <c r="Q13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5508,49 +5508,49 @@
         <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I14" t="s">
         <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M14" t="s">
         <v>90</v>
       </c>
       <c r="N14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P14" t="s">
         <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -5558,7 +5558,7 @@
         <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -5576,13 +5576,13 @@
         <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K15" t="s">
         <v>88</v>
@@ -5600,7 +5600,7 @@
         <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -5608,7 +5608,7 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -5626,13 +5626,13 @@
         <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I16" t="s">
         <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K16" t="s">
         <v>88</v>
@@ -5650,7 +5650,7 @@
         <v>88</v>
       </c>
       <c r="Q16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -5658,49 +5658,49 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I17" t="s">
         <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M17" t="s">
         <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P17" t="s">
         <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -5708,7 +5708,7 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -5726,13 +5726,13 @@
         <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I18" t="s">
         <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K18" t="s">
         <v>88</v>
@@ -5750,7 +5750,7 @@
         <v>88</v>
       </c>
       <c r="Q18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -5758,31 +5758,31 @@
         <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I19" t="s">
         <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K19" t="s">
         <v>88</v>
@@ -5794,13 +5794,13 @@
         <v>90</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P19" t="s">
         <v>88</v>
       </c>
       <c r="Q19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5891,31 +5891,31 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H2" t="s">
         <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K2" t="s">
         <v>37</v>
@@ -5927,13 +5927,13 @@
         <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P2" t="s">
         <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5941,7 +5941,7 @@
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -5962,10 +5962,10 @@
         <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K3" t="s">
         <v>88</v>
@@ -5983,7 +5983,7 @@
         <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5991,7 +5991,7 @@
         <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -6012,10 +6012,10 @@
         <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K4" t="s">
         <v>88</v>
@@ -6033,7 +6033,7 @@
         <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6041,31 +6041,31 @@
         <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H5" t="s">
         <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -6083,7 +6083,7 @@
         <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6174,7 +6174,7 @@
         <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
@@ -6189,7 +6189,7 @@
         <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -6198,13 +6198,13 @@
         <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M2" t="s">
         <v>90</v>
@@ -6242,19 +6242,19 @@
         <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I3" t="s">
         <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K3" t="s">
         <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M3" t="s">
         <v>90</v>
@@ -6263,10 +6263,10 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6292,19 +6292,19 @@
         <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
         <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K4" t="s">
         <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M4" t="s">
         <v>90</v>
@@ -6313,10 +6313,10 @@
         <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6342,19 +6342,19 @@
         <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I5" t="s">
         <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K5" t="s">
         <v>113</v>
       </c>
       <c r="L5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M5" t="s">
         <v>90</v>
@@ -6366,7 +6366,7 @@
         <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6457,7 +6457,7 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6472,7 +6472,7 @@
         <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -6481,7 +6481,7 @@
         <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
@@ -6496,10 +6496,10 @@
         <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -6507,31 +6507,31 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
         <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K3" t="s">
         <v>88</v>
@@ -6543,13 +6543,13 @@
         <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
